--- a/data/trans_bre/P12A1_2_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P12A1_2_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>21,96</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,04</t>
+          <t>-6,26</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,86</t>
+          <t>-3,99</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-10,24</t>
+          <t>-5,25</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>35,29%</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-3,35%</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,55%</t>
+          <t>39,39%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-13,5%</t>
+          <t>-48,39%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-33,91%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-48,23%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-7,41%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>14,58%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,27; 50,01</t>
+          <t>-4,14; 9,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-26,93; 14,61</t>
+          <t>-12,86; 0,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-20,42; 26,55</t>
+          <t>-11,99; 2,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-38,18; 20,62</t>
+          <t>-13,77; 1,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,12; 134,12</t>
+          <t>-11,27; 8,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-28,81; 17,24</t>
+          <t>-6,19; 7,68</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-22,4; 40,37</t>
+          <t>-43,39; 218,6</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-45,92; 35,9</t>
+          <t>-74,53; 5,02</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-68,88; 31,9</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-81,79; 29,75</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-62,72; 114,09</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-57,26; 238,45</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>23,71</t>
+          <t>-1,22</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,19</t>
+          <t>-1,97</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>10,32</t>
+          <t>3,8</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-1,56%</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>56,82%</t>
+          <t>4,16</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>23,34%</t>
+          <t>-23,05%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>20,01%</t>
+          <t>-26,83%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-32,1%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>135,01%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>67,59%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>72,85%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-35,38; 35,87</t>
+          <t>-5,5; 3,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-17,24; 60,72</t>
+          <t>-4,84; 2,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-21,22; 44,31</t>
+          <t>-6,57; 2,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-26,53; 46,04</t>
+          <t>-0,98; 8,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-52,87; 107,59</t>
+          <t>-2,36; 8,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-26,44; 290,61</t>
+          <t>-2,29; 11,16</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-37,7; 178,91</t>
+          <t>-75,77; 169,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-34,49; 233,41</t>
+          <t>-73,56; 95,39</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-73,74; 72,96</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-35,39; 881,6</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-40,9; 524,64</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-31,36; 444,49</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-7,19</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,91</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>22,83</t>
+          <t>3,09</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-17,87</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-12,41%</t>
+          <t>-1,71</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>9,39%</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>67,34%</t>
+          <t>6,65%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-26,33%</t>
+          <t>5,65%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>97,75%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>21,26%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-19,21%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>33,13%</t>
         </is>
       </c>
     </row>
@@ -868,42 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-41,89; 40,94</t>
+          <t>-3,74; 3,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-19,36; 33,34</t>
+          <t>-3,4; 3,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 56,25</t>
+          <t>-0,21; 6,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-41,14; 13,94</t>
+          <t>-3,13; 4,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-50,46; 130,82</t>
+          <t>-6,8; 2,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-28,99; 98,86</t>
+          <t>-2,84; 7,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-9,3; 424,89</t>
+          <t>-50,76; 127,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-53,45; 21,94</t>
+          <t>-44,75; 90,63</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-13,22; 295,85</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-42,54; 163,82</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-55,31; 48,89</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-34,3; 171,02</t>
         </is>
       </c>
     </row>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-4,07</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-6,37</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-14,98</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,76</t>
+          <t>4,08</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-5,96%</t>
+          <t>-7,65</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-9,67%</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-21,28%</t>
+          <t>18,17%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>14,61%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-3,72%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>33,02%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-32,29%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,73%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-23,23; 17,04</t>
+          <t>-3,4; 6,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-26,34; 13,44</t>
+          <t>-3,03; 5,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-32,24; 3,31</t>
+          <t>-4,58; 4,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,86; 19,47</t>
+          <t>-1,66; 10,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-30,5; 30,01</t>
+          <t>-15,84; 0,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-34,01; 25,76</t>
+          <t>-7,48; 6,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-40,51; 5,88</t>
+          <t>-29,56; 92,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-9,9; 26,73</t>
+          <t>-29,81; 86,92</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-38,18; 62,87</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-11,21; 112,27</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-54,87; 5,95</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-38,84; 53,2</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1212,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-27,52</t>
+          <t>-4,2</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-30,67</t>
+          <t>-5,83</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-21,97</t>
+          <t>-5,63</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-19,71</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-50,73%</t>
+          <t>-10,72</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-54,42%</t>
+          <t>-10,79</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-41,85%</t>
+          <t>-47,89%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-32,73%</t>
+          <t>-54,04%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-48,61%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1,07%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-48,84%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-49,05%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1280,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-48,35; -6,72</t>
+          <t>-8,91; 0,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-48,5; -11,91</t>
+          <t>-10,45; -1,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-41,02; -2,54</t>
+          <t>-12,08; -0,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-36,69; -2,22</t>
+          <t>-4,65; 5,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-76,48; -15,53</t>
+          <t>-19,37; -3,39</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-75,09; -26,42</t>
+          <t>-18,38; -2,84</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-68,68; -7,3</t>
+          <t>-77,28; 10,8</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-53,28; -3,96</t>
+          <t>-75,63; -12,49</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-74,83; -5,99</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-49,73; 95,98</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-70,34; -18,23</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-69,96; -15,98</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1352,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-16,5</t>
+          <t>-2,15</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>6,31</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>10,77</t>
+          <t>2,91</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>4,81</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-57,25%</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>81,9%</t>
+          <t>-2,27</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>259,96%</t>
+          <t>-42,33%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>50,65%</t>
+          <t>157,86%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>296,85%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>71,93%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>36,68%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-24,3%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1420,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-39,9; 1,55</t>
+          <t>-6,7; 1,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 18,01</t>
+          <t>-0,54; 5,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,27; 21,63</t>
+          <t>0,53; 5,58</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-9,82; 20,58</t>
+          <t>-2,56; 6,52</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-86,09; 22,67</t>
+          <t>-2,73; 5,67</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-51,52; —</t>
+          <t>-8,68; 3,25</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-38,65; —</t>
+          <t>-81,13; 61,96</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-73,0; 556,73</t>
+          <t>-44,0; 1543,24</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-28,96; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-75,52; 618,5</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-71,46; 566,73</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-65,29; 68,71</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1492,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-11,11</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-11,9</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-5,35</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-11,02</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-21,75%</t>
+          <t>-3,27</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-23,52%</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-11,74%</t>
+          <t>-6,81%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-19,06%</t>
+          <t>-18,82%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-11,18%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>16,18%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-26,24%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-7,66%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1560,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-23,83; -0,24</t>
+          <t>-2,49; 1,32</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-22,09; -0,76</t>
+          <t>-3,27; 0,32</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-15,93; 5,73</t>
+          <t>-2,77; 1,15</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-20,99; -1,07</t>
+          <t>-1,12; 3,19</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-40,23; -1,22</t>
+          <t>-6,32; -0,37</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-39,2; -1,62</t>
+          <t>-3,62; 1,85</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-30,93; 14,93</t>
+          <t>-31,99; 23,6</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-33,66; -2,4</t>
+          <t>-38,67; 5,87</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-33,45; 19,4</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-14,01; 53,77</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-43,55; -3,04</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-28,86; 20,64</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,13 +1631,13 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
